--- a/ApiShedule2022/bin/Debug/net5.0/Raspisanie/_10_15_oct.xlsx
+++ b/ApiShedule2022/bin/Debug/net5.0/Raspisanie/_10_15_oct.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
   <x:si>
     <x:t>УТВЕРЖДАЮ</x:t>
   </x:si>
@@ -1498,11 +1498,24 @@
     <x:t>Четверг</x:t>
   </x:si>
   <x:si>
+    <x:t>1. История мировой культуры 
+Мунасыпова К.Р. 
+Основной корпус-Аудитория 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Астрономия Колотвина М.Г. 
+Основной корпус-Аудитория 313</x:t>
+  </x:si>
+  <x:si>
     <x:t>География 
 Мязина А.А. 
 Основной корпус-Аудитория 202</x:t>
   </x:si>
   <x:si>
+    <x:t>1. География Мязина А.А. 
+Основной корпус-Аудитория 202</x:t>
+  </x:si>
+  <x:si>
     <x:t>Иностранный язык 
 Боровцова Е.В. 
 Производственный корпус-Аудитория 41</x:t>
@@ -1513,19 +1526,408 @@
 Производственный корпус-Аудитория 33</x:t>
   </x:si>
   <x:si>
+    <x:t>1. ОПД Кирьянова Д.А. 
+Основной корпус-Аудитория 102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Информатика  
+Бухарова Э.Э. 
+Основной корпус-Аудитория 407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Безопасность жизнедеятельности 
+Аладина О.Н. 
+Основной корпус-Аудитория 304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Бухгалтерский учет 
+Кравченко И.П. 
+Производственный корпус-Аудитория 24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Элементы высшей математики 
+Трушина И.Ю. 
+Производственный корпус-Аудитория 34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Психология общения 
+Каблукова С.Ю. 
+Производственный корпус-Аудитория 31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Архитектура аппаратных средств 
+Павельев А.А. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. МДК.04.01 Внедрение и поддержка компьютерных систем Андреева Л.В. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Основы электротехники 
+Сагдиев Т.Ф. 
+Производственный корпус-Аудитория 47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей Плотникова Ю.А. 
+Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Экономика отрасли 
+Криворучко А.В. 
+Производственный корпус-Аудитория 37а</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Иностранный язык в профессиональной деятельности Цибарт П.А. 
+Производственный корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>МДК 05.02 Разработка кода информационных систем 
+Селищева О.И. 
+Основной корпус-Аудитория 404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Астрономия Колотвина М.Г. 
+Основной корпус-Аудитория 313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Экономика  Белан В.Е. 
+Основной корпус-Аудитория 311</x:t>
+  </x:si>
+  <x:si>
     <x:t>ОПД 
 Кирьянова Д.А. 
 Основной корпус-Аудитория 102</x:t>
   </x:si>
   <x:si>
+    <x:t>2. История Швиндина Н.А. 
+Основной корпус-Аудитория 201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Информатика  Бухарова Э.Э. 
+Основной корпус-Аудитория 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. ОБЖ Чебрукова Т.А. 
+Производственный корпус-Аудитория 49Б</x:t>
+  </x:si>
+  <x:si>
+    <x:t>МДК 01.01 Организация безналичных расчетов 
+Силкина М.Г. 
+Производственный корпус-Аудитория 38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Психология общения 
+Палагина Л.В. 
+Производственный корпус-Аудитория 37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Информационные технологии 
+Калиберда Е.Л. 
+Основной корпус-Аудитория 302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Архитектура аппаратных средств 
+Павельев А.А. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Иностранный язык в профессиональной деятельности 
+Лягута В.В. 
+Производственный корпус-Аудитория 49А</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Иностранный язык в профессиональной деятельности Цибарт П.А. 
+Основной корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Психология общения 
+Каблукова С.Ю. 
+Производственный корпус-Аудитория 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. МДК.04.01 Внедрение и поддержка компьютерных систем Андреева Л.В. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей Плотникова Ю.А. 
+Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Элементы высшей математики 
+Игликова А.Н. 
+Производственный корпус-О125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Физическая культура 
+Новиков Р.Е. 
+-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. МДК 07.01 Управление и автоматизация баз данных Муфазалова Ж.Б. 
+Основной корпус-Аудитория 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. Численные методы 
+Зеленина С.В. 
+Основной корпус-Актовый зал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основы алгоритмизации и программирования 
+Малышев А.О. 
+Основной корпус-Аудитория 407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Информатика  Бухарова Э.Э. 
+Основной корпус-Аудитория 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. ОПД Кирьянова Д.А. 
+Основной корпус-Аудитория 49б</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Русский язык Лыжина Л.А. 
+Производственный корпус-Аудитория 25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Физика 
+Имашева К.Б. 
+Основной корпус-Аудитория 304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Иностранный язык 
+Кондратьева М.А. 
+Производственный корпус-Аудитория 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Информатика  
+Коршиков Д.С. 
+Производственный корпус-О123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. География Мязина А.А. 
+Основной корпус-Аудитория 202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Математика 
+Зеленина С.В. 
+Производственный корпус-Аудитория 35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Документальное обеспечение управления 
+Балышева Е.В. 
+Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Информационные технологии 
+Калиберда Е.Л. 
+Основной корпус-Аудитория 302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Архитектура аппаратных средств 
+Павельев А.А. 
+Основной корпус-Аудитория 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Элементы высшей математики 
+Игликова А.Н. 
+Производственный корпус-О125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. История 
+Великороднова А.В. 
+Основной корпус-Аудитория 305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основы бухгалтерского учета 
+Силкина М.Г. 
+Производственный корпус-Аудитория 38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Экономика отрасли 
+Криворучко А.В. 
+Производственный корпус-Аудитория 37а</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК 07.01 Управление и автоматизация баз данных Муфазалова Ж.Б. 
+Основной корпус-Аудитория 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Иностранный язык в профессиональной деятельности Цибарт П.А. 
+Производственный корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ДОП (Жукова О.В.)  209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. МДК 05.02 Разработка кода информационных систем Селищева О.И. 
+Основной корпус-Аудитория 404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. Экономика отрасли 
+Тарасова Т.В. 
+Основной  корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ДОП (Кирьянова Д..А.) 403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Литература Пахилько О.Н. 
+Производственный корпус-Аудитория 23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Занятие с психологом спортивный зал</x:t>
+  </x:si>
+  <x:si>
+    <x:t>МДК 06.01 Внедрение ИС 
+Шестакова А.М. 
+Основной корпус-Аудитория 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Физическая культура Никитина В.Л. 
+-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Архитектура аппаратных средств 
+Колотвина М.Г. 
+Основной корпус-Аудитория 313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Физическая культура 
+Самсонова Д.А. 
+-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Информационные технологии в профессиональной деятельности 
+Беляев А.А. 
+Основной корпус-Аудитория 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Экономика отрасли 
+Криворучко А.В. 
+Производственный корпус-Аудитория 37а</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК 07.01 Управление и автоматизация баз данных Муфазалова Ж.Б. 
+Основной корпус-Аудитория 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Иностранный язык в профессиональной деятельности Цибарт П.А. 
+Производственный корпус-Аудитория 28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК 05.02 Разработка кода информационных систем Селищева О.И. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей Малышев А.О. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. Физическая культура 
+Сазонов А.Н. 
+-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК.02.03 Организация администрирования комьютерных систем 
+Парасовченко Г.И. 
+Основной корпус-Аудитория 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. МДК.03.01 Эксплуатация объектов сетевой инфраструктуры Сагдиев Т.Ф. 
+Производственный корпус-Аудитория 47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. МДК 07.01 Управление и автоматизация баз данных Муфазалова Ж.Б. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ДОП (Плотникова Ю.А.) 405</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Основы философии Великороднова А.В. 
+Основной корпус-Аудитория 305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Тестирование информационных систем 
+Першин А.В. 
+Основной корпус-Аудитория 409</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">5. Физическая культура 
+Сазонов А.Н. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Менеджмент в профессиональной деятельности Криворучко А.В. 
+Производственный корпус-Аудитория 37а</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. Экономика отрасли 
+Тарасова Т.В. 
+Основной  корпус-Аудитория 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. МДК.02.03 Организация администрирования комьютерных систем Парасовченко Г.И. 
+Основной корпус-Аудитория 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. МДК 07.01 Управление и автоматизация баз данных Муфазалова Ж.Б. 
+Основной корпус-Аудитория 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. Инженерная и компьютерная графика 
+Павельев А.А. 
+Основной корпус-Аудитория 107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тестирование информационных систем 
+Першин А.В. 
+Основной корпус-Аудитория 410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. Менеджмент в профессиональной деятельности Криворучко А.В. 
+Производственный корпус-Аудитория 37а</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. МДК.01.03 Разработка мобильных приложений Лукьяненко О.В. 
+Основной корпус-Аудитория 404</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. МДК.03.01 Эксплуатация объектов сетевой инфраструктуры Сагдиев Т.Ф. 
+Производственный корпус-Аудитория 47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Пятница</x:t>
+  </x:si>
+  <x:si>
+    <x:t>УИПД 
+Белан В.Е. 
+Основной корпус-Аудитория 402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Информатика  
+Коршиков Д.С. 
+Основной корпус-Аудитория 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иностранный язык 
+Сергеева Н.В. 
+Основной корпус-Аудитория 311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иностранный язык 
+Боровцова Е.В. 
+Производственный корпус-Аудитория 21</x:t>
+  </x:si>
+  <x:si>
     <x:t>Безопасность жизнедеятельности 
 Аладина О.Н. 
-Основной корпус-Аудитория 304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Бухгалтерский учет 
-Кравченко И.П. 
-Производственный корпус-Аудитория 24</x:t>
+Основной корпус-Аудитория 202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Математика 
+Игликова А.Н. 
+Производственный корпус-Аудитория 125</x:t>
   </x:si>
   <x:si>
     <x:t>Информационные технологии 
@@ -1533,174 +1935,27 @@
 Основной корпус-Аудитория 302</x:t>
   </x:si>
   <x:si>
-    <x:t>Психология общения 
-Каблукова С.Ю. 
-Производственный корпус-Аудитория 31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Архитектура аппаратных средств 
-Павельев А.А. 
+    <x:t>ДОП (Шавель И.Ю.) 37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Основы алгоритмизации и программирования 
+Малышев А.О. 
+Основной корпус-Аудитория 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Экономика  
+Белан В.Е. 
 Основной корпус-Аудитория 402</x:t>
   </x:si>
   <x:si>
-    <x:t>Стандартизация, сертификация и техническое документоведение 
-Гиниятулина Н.В. 
-Основной корпус-Аудитория 306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>МДК 05.02 Разработка кода информационных систем 
-Селищева О.И. 
-Основной корпус-Аудитория 404</x:t>
+    <x:t>УИПД 
+Кирьянова Д.А. 
+Основной корпус-Актовый зал</x:t>
   </x:si>
   <x:si>
     <x:t>Математика 
 Жеколдина Р.Р. 
 Производственный корпус-Аудитория 28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>МДК 01.01 Организация безналичных расчетов 
-Силкина М.Г. 
-Производственный корпус-Аудитория 38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Психология общения 
-Палагина Л.В. 
-Производственный корпус-Аудитория 37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иностранный язык в профессиональной деятельности 
-Цибарт П.А. 
-Основной корпус-Аудитория 405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Психология общения 
-Каблукова С.Ю. 
-Производственный корпус-Аудитория 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы алгоритмизации и программирования 
-Малышев А.О. 
-Основной корпус-Аудитория 407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Физика 
-Имашева К.Б. 
-Основной корпус-Аудитория 304</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иностранный язык 
-Кондратьева М.А. 
-Производственный корпус-Аудитория 27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Информатика  
-Коршиков Д.С. 
-Производственный корпус-О123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Документальное обеспечение управления 
-Балышева Е.В. 
-Основной корпус-Аудитория 405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы бухгалтерского учета 
-Силкина М.Г. 
-Производственный корпус-Аудитория 38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОП (Жукова О.В.)  209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОП (Кирьянова Д..А.) 403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>МДК 06.01 Внедрение ИС 
-Шестакова А.М. 
-Основной корпус-Аудитория 410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Информационные технологии в профессиональной деятельности 
-Беляев А.А. 
-Основной корпус-Аудитория 105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы проектирования баз данных 
-Гиниятулина Н.В. 
-Основной корпус-Аудитория 402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>МДК 05.02 Разработка кода информационных систем 
-Селищева О.И. 
-Основной корпус-Аудитория 313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>МДК.01.02 Организация, принципы построения и функционирования компьютерных сетей 
-Малышев А.О. 
-Основной корпус-Аудитория 306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОП (Плотникова Ю.А.) 405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тестирование информационных систем 
-Першин А.В. 
-Основной корпус-Аудитория 410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Инженерная и компьютерная графика 
-Павельев А.А. 
-Основной корпус-Аудитория 107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Пятница</x:t>
-  </x:si>
-  <x:si>
-    <x:t>УИПД 
-Белан В.Е. 
-Основной корпус-Аудитория 402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Информатика  
-Коршиков Д.С. 
-Основной корпус-Аудитория 308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иностранный язык 
-Сергеева Н.В. 
-Основной корпус-Аудитория 311</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Иностранный язык 
-Боровцова Е.В. 
-Производственный корпус-Аудитория 21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Безопасность жизнедеятельности 
-Аладина О.Н. 
-Основной корпус-Аудитория 202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Математика 
-Игликова А.Н. 
-Производственный корпус-Аудитория 125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ДОП (Шавель И.Ю.) 37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Основы алгоритмизации и программирования 
-Малышев А.О. 
-Основной корпус-Аудитория 105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Экономика  
-Белан В.Е. 
-Основной корпус-Аудитория 402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>УИПД 
-Кирьянова Д.А. 
-Основной корпус-Актовый зал</x:t>
   </x:si>
   <x:si>
     <x:t>Психология общения 
@@ -6239,17 +6494,17 @@
       <x:c r="B24" s="36" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="C24" s="44" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D24" s="44" t="s">
-        <x:v>76</x:v>
+      <x:c r="C24" s="50" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="D24" s="50" t="s">
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E24" s="44" t="s">
-        <x:v>342</x:v>
-      </x:c>
-      <x:c r="F24" s="44" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="F24" s="50" t="s">
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G24" s="44" t="s">
         <x:v>84</x:v>
@@ -6261,7 +6516,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="J24" s="44" t="s">
-        <x:v>343</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="K24" s="44" t="s">
         <x:v>73</x:v>
@@ -6269,19 +6524,19 @@
       <x:c r="L24" s="44" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M24" s="44" t="s">
-        <x:v>203</x:v>
+      <x:c r="M24" s="50" t="s">
+        <x:v>191</x:v>
       </x:c>
       <x:c r="N24" s="44" t="s"/>
       <x:c r="O24" s="44" t="s"/>
       <x:c r="P24" s="44" t="s">
-        <x:v>344</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="Q24" s="44" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="R24" s="44" t="s">
-        <x:v>345</x:v>
+      <x:c r="R24" s="50" t="s">
+        <x:v>348</x:v>
       </x:c>
       <x:c r="S24" s="44" t="s">
         <x:v>108</x:v>
@@ -6289,14 +6544,14 @@
       <x:c r="T24" s="44" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="U24" s="44" t="s">
-        <x:v>245</x:v>
+      <x:c r="U24" s="50" t="s">
+        <x:v>349</x:v>
       </x:c>
       <x:c r="V24" s="44" t="s">
-        <x:v>346</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="W24" s="44" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="X24" s="44" t="s">
         <x:v>112</x:v>
@@ -6305,25 +6560,31 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="Z24" s="44" t="s"/>
-      <x:c r="AA24" s="44" t="s">
-        <x:v>348</x:v>
+      <x:c r="AA24" s="50" t="s">
+        <x:v>352</x:v>
       </x:c>
       <x:c r="AB24" s="44" t="s">
-        <x:v>349</x:v>
-      </x:c>
-      <x:c r="AC24" s="44" t="s">
-        <x:v>350</x:v>
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="AC24" s="50" t="s">
+        <x:v>354</x:v>
       </x:c>
       <x:c r="AD24" s="44" t="s"/>
-      <x:c r="AE24" s="44" t="s"/>
-      <x:c r="AF24" s="44" t="s"/>
-      <x:c r="AG24" s="44" t="s">
-        <x:v>351</x:v>
-      </x:c>
-      <x:c r="AH24" s="44" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="AI24" s="44" t="s"/>
+      <x:c r="AE24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="AF24" s="50" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="AG24" s="50" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="AH24" s="50" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="AI24" s="50" t="s">
+        <x:v>357</x:v>
+      </x:c>
       <x:c r="AJ24" s="44" t="s"/>
       <x:c r="AK24" s="44" t="s"/>
       <x:c r="AL24" s="44" t="s"/>
@@ -6337,27 +6598,47 @@
       <x:c r="AR24" s="44" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="AS24" s="44" t="s"/>
-      <x:c r="AT24" s="44" t="s"/>
-      <x:c r="AU24" s="44" t="s"/>
+      <x:c r="AS24" s="50" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="AT24" s="50" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="AU24" s="50" t="s">
+        <x:v>358</x:v>
+      </x:c>
       <x:c r="AV24" s="44" t="s"/>
-      <x:c r="AW24" s="44" t="s"/>
+      <x:c r="AW24" s="50" t="s">
+        <x:v>359</x:v>
+      </x:c>
       <x:c r="AX24" s="44" t="s"/>
-      <x:c r="AY24" s="44" t="s"/>
+      <x:c r="AY24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
       <x:c r="AZ24" s="44" t="s"/>
       <x:c r="BA24" s="44" t="s"/>
       <x:c r="BB24" s="44" t="s"/>
-      <x:c r="BC24" s="44" t="s"/>
+      <x:c r="BC24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
       <x:c r="BD24" s="44" t="s">
-        <x:v>352</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="BE24" s="44" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="BF24" s="44" t="s"/>
-      <x:c r="BG24" s="44" t="s"/>
-      <x:c r="BH24" s="44" t="s"/>
-      <x:c r="BI24" s="44" t="s"/>
+      <x:c r="BF24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="BG24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="BH24" s="50" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="BI24" s="50" t="s">
+        <x:v>191</x:v>
+      </x:c>
       <x:c r="BJ24" s="44" t="s"/>
     </x:row>
     <x:row r="25" spans="1:62" ht="53.45" customHeight="1">
@@ -6365,26 +6646,26 @@
       <x:c r="B25" s="36" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="C25" s="44" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="D25" s="44" t="s">
-        <x:v>128</x:v>
+      <x:c r="C25" s="50" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="D25" s="50" t="s">
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E25" s="44" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F25" s="44" t="s">
-        <x:v>76</x:v>
+      <x:c r="F25" s="50" t="s">
+        <x:v>362</x:v>
       </x:c>
       <x:c r="G25" s="44" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="H25" s="44" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="I25" s="44" t="s">
-        <x:v>343</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="J25" s="44" t="s">
         <x:v>80</x:v>
@@ -6393,10 +6674,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="L25" s="44" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="M25" s="44" t="s">
-        <x:v>83</x:v>
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="M25" s="50" t="s">
+        <x:v>364</x:v>
       </x:c>
       <x:c r="N25" s="44" t="s">
         <x:v>108</x:v>
@@ -6408,10 +6689,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="Q25" s="44" t="s">
-        <x:v>344</x:v>
-      </x:c>
-      <x:c r="R25" s="44" t="s">
-        <x:v>103</x:v>
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="R25" s="50" t="s">
+        <x:v>365</x:v>
       </x:c>
       <x:c r="S25" s="44" t="s">
         <x:v>301</x:v>
@@ -6419,14 +6700,14 @@
       <x:c r="T25" s="44" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="U25" s="44" t="s">
-        <x:v>203</x:v>
+      <x:c r="U25" s="50" t="s">
+        <x:v>366</x:v>
       </x:c>
       <x:c r="V25" s="44" t="s">
-        <x:v>354</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="W25" s="44" t="s">
-        <x:v>355</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="X25" s="44" t="s">
         <x:v>98</x:v>
@@ -6437,32 +6718,32 @@
       <x:c r="Z25" s="44" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="AA25" s="44" t="s">
-        <x:v>351</x:v>
+      <x:c r="AA25" s="50" t="s">
+        <x:v>369</x:v>
       </x:c>
       <x:c r="AB25" s="44" t="s">
-        <x:v>350</x:v>
-      </x:c>
-      <x:c r="AC25" s="44" t="s">
-        <x:v>125</x:v>
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="AC25" s="50" t="s">
+        <x:v>371</x:v>
       </x:c>
       <x:c r="AD25" s="44" t="s">
         <x:v>295</x:v>
       </x:c>
-      <x:c r="AE25" s="44" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="AF25" s="44" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="AG25" s="44" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="AH25" s="44" t="s">
-        <x:v>348</x:v>
-      </x:c>
-      <x:c r="AI25" s="44" t="s">
-        <x:v>189</x:v>
+      <x:c r="AE25" s="50" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="AF25" s="50" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="AG25" s="50" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="AH25" s="50" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="AI25" s="50" t="s">
+        <x:v>376</x:v>
       </x:c>
       <x:c r="AJ25" s="44" t="s"/>
       <x:c r="AK25" s="44" t="s"/>
@@ -6479,35 +6760,51 @@
       <x:c r="AR25" s="44" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="AS25" s="44" t="s"/>
-      <x:c r="AT25" s="44" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU25" s="44" t="s"/>
+      <x:c r="AS25" s="50" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="AT25" s="50" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="AU25" s="50" t="s">
+        <x:v>378</x:v>
+      </x:c>
       <x:c r="AV25" s="44" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="AW25" s="44" t="s">
-        <x:v>122</x:v>
+      <x:c r="AW25" s="50" t="s">
+        <x:v>379</x:v>
       </x:c>
       <x:c r="AX25" s="44" t="s">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="AY25" s="44" t="s"/>
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="AY25" s="50" t="s">
+        <x:v>213</x:v>
+      </x:c>
       <x:c r="AZ25" s="44" t="s"/>
       <x:c r="BA25" s="44" t="s"/>
       <x:c r="BB25" s="44" t="s"/>
-      <x:c r="BC25" s="44" t="s"/>
+      <x:c r="BC25" s="50" t="s">
+        <x:v>210</x:v>
+      </x:c>
       <x:c r="BD25" s="44" t="s">
-        <x:v>352</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="BE25" s="44" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="BF25" s="44" t="s"/>
-      <x:c r="BG25" s="44" t="s"/>
-      <x:c r="BH25" s="44" t="s"/>
-      <x:c r="BI25" s="44" t="s"/>
+      <x:c r="BF25" s="50" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="BG25" s="50" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="BH25" s="50" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="BI25" s="50" t="s">
+        <x:v>213</x:v>
+      </x:c>
       <x:c r="BJ25" s="44" t="s"/>
     </x:row>
     <x:row r="26" spans="1:62" ht="53.45" customHeight="1">
@@ -6515,17 +6812,17 @@
       <x:c r="B26" s="36" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="C26" s="44" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="D26" s="44" t="s">
-        <x:v>203</x:v>
+      <x:c r="C26" s="50" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="D26" s="50" t="s">
+        <x:v>382</x:v>
       </x:c>
       <x:c r="E26" s="44" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F26" s="44" t="s">
-        <x:v>84</x:v>
+      <x:c r="F26" s="50" t="s">
+        <x:v>383</x:v>
       </x:c>
       <x:c r="G26" s="44" t="s">
         <x:v>129</x:v>
@@ -6537,19 +6834,19 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="J26" s="44" t="s">
-        <x:v>359</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="K26" s="44" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="L26" s="44" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="M26" s="44" t="s">
-        <x:v>360</x:v>
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="M26" s="50" t="s">
+        <x:v>385</x:v>
       </x:c>
       <x:c r="N26" s="44" t="s">
-        <x:v>361</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="O26" s="44" t="s">
         <x:v>153</x:v>
@@ -6560,20 +6857,20 @@
       <x:c r="Q26" s="44" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="R26" s="44" t="s">
-        <x:v>342</x:v>
+      <x:c r="R26" s="50" t="s">
+        <x:v>387</x:v>
       </x:c>
       <x:c r="S26" s="44" t="s">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="T26" s="44" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="U26" s="44" t="s">
-        <x:v>292</x:v>
+      <x:c r="U26" s="50" t="s">
+        <x:v>388</x:v>
       </x:c>
       <x:c r="V26" s="44" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="W26" s="44" t="s">
         <x:v>134</x:v>
@@ -6582,37 +6879,37 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="Y26" s="44" t="s">
-        <x:v>362</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="Z26" s="44" t="s">
         <x:v>323</x:v>
       </x:c>
-      <x:c r="AA26" s="44" t="s">
-        <x:v>348</x:v>
+      <x:c r="AA26" s="50" t="s">
+        <x:v>390</x:v>
       </x:c>
       <x:c r="AB26" s="44" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="AC26" s="44" t="s">
-        <x:v>155</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AD26" s="44" t="s">
         <x:v>295</x:v>
       </x:c>
-      <x:c r="AE26" s="44" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="AF26" s="44" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="AG26" s="44" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="AH26" s="44" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="AI26" s="44" t="s">
-        <x:v>87</x:v>
+      <x:c r="AE26" s="50" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="AF26" s="50" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="AG26" s="50" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="AH26" s="50" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="AI26" s="50" t="s">
+        <x:v>393</x:v>
       </x:c>
       <x:c r="AJ26" s="44" t="s"/>
       <x:c r="AK26" s="44" t="s"/>
@@ -6620,7 +6917,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="AM26" s="44" t="s">
-        <x:v>363</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="AN26" s="44" t="s">
         <x:v>243</x:v>
@@ -6637,30 +6934,34 @@
       <x:c r="AR26" s="44" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="AS26" s="44" t="s"/>
-      <x:c r="AT26" s="44" t="s">
-        <x:v>327</x:v>
-      </x:c>
-      <x:c r="AU26" s="44" t="s">
-        <x:v>328</x:v>
+      <x:c r="AS26" s="50" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="AT26" s="50" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="AU26" s="50" t="s">
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AV26" s="44" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="AW26" s="44" t="s">
-        <x:v>316</x:v>
+      <x:c r="AW26" s="50" t="s">
+        <x:v>397</x:v>
       </x:c>
       <x:c r="AX26" s="44" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AY26" s="44" t="s"/>
+      <x:c r="AY26" s="50" t="s">
+        <x:v>239</x:v>
+      </x:c>
       <x:c r="AZ26" s="44" t="s"/>
       <x:c r="BA26" s="45" t="s">
-        <x:v>364</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="BB26" s="44" t="s"/>
-      <x:c r="BC26" s="44" t="s">
-        <x:v>352</x:v>
+      <x:c r="BC26" s="50" t="s">
+        <x:v>399</x:v>
       </x:c>
       <x:c r="BD26" s="44" t="s">
         <x:v>165</x:v>
@@ -6668,12 +6969,18 @@
       <x:c r="BE26" s="44" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="BF26" s="44" t="s">
-        <x:v>340</x:v>
-      </x:c>
-      <x:c r="BG26" s="44" t="s"/>
-      <x:c r="BH26" s="44" t="s"/>
-      <x:c r="BI26" s="44" t="s"/>
+      <x:c r="BF26" s="50" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="BG26" s="50" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="BH26" s="50" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="BI26" s="50" t="s">
+        <x:v>240</x:v>
+      </x:c>
       <x:c r="BJ26" s="44" t="s"/>
     </x:row>
     <x:row r="27" spans="1:62" ht="53.45" customHeight="1">
@@ -6681,19 +6988,27 @@
       <x:c r="B27" s="36" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C27" s="44" t="s"/>
-      <x:c r="D27" s="44" t="s"/>
+      <x:c r="C27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="E27" s="44" t="s"/>
-      <x:c r="F27" s="44" t="s"/>
+      <x:c r="F27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="G27" s="45" t="s">
-        <x:v>365</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="H27" s="44" t="s"/>
       <x:c r="I27" s="44" t="s"/>
       <x:c r="J27" s="44" t="s"/>
       <x:c r="K27" s="44" t="s"/>
       <x:c r="L27" s="44" t="s"/>
-      <x:c r="M27" s="44" t="s"/>
+      <x:c r="M27" s="50" t="s">
+        <x:v>402</x:v>
+      </x:c>
       <x:c r="N27" s="44" t="s">
         <x:v>83</x:v>
       </x:c>
@@ -6704,10 +7019,14 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="Q27" s="44" t="s"/>
-      <x:c r="R27" s="44" t="s"/>
+      <x:c r="R27" s="50" t="s">
+        <x:v>403</x:v>
+      </x:c>
       <x:c r="S27" s="44" t="s"/>
       <x:c r="T27" s="44" t="s"/>
-      <x:c r="U27" s="44" t="s"/>
+      <x:c r="U27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="V27" s="45" t="s">
         <x:v>322</x:v>
       </x:c>
@@ -6718,23 +7037,29 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="AA27" s="44" t="s">
-        <x:v>295</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AB27" s="44" t="s"/>
-      <x:c r="AC27" s="44" t="s"/>
+      <x:c r="AC27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AD27" s="44" t="s">
-        <x:v>366</x:v>
-      </x:c>
-      <x:c r="AE27" s="44" t="s">
-        <x:v>107</x:v>
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="AE27" s="50" t="s">
+        <x:v>405</x:v>
       </x:c>
       <x:c r="AF27" s="44" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="AG27" s="44" t="s"/>
-      <x:c r="AH27" s="44" t="s"/>
-      <x:c r="AI27" s="44" t="s">
-        <x:v>243</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AG27" s="50" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="AH27" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AI27" s="50" t="s">
+        <x:v>407</x:v>
       </x:c>
       <x:c r="AJ27" s="44" t="s">
         <x:v>120</x:v>
@@ -6743,7 +7068,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="AL27" s="44" t="s">
-        <x:v>367</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="AM27" s="44" t="s">
         <x:v>98</x:v>
@@ -6761,26 +7086,26 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="AR27" s="44" t="s"/>
-      <x:c r="AS27" s="44" t="s">
-        <x:v>328</x:v>
-      </x:c>
-      <x:c r="AT27" s="44" t="s">
-        <x:v>90</x:v>
+      <x:c r="AS27" s="50" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="AT27" s="50" t="s">
+        <x:v>410</x:v>
       </x:c>
       <x:c r="AU27" s="44" t="s">
-        <x:v>368</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AV27" s="45" t="s">
         <x:v>100</x:v>
       </x:c>
       <x:c r="AW27" s="44" t="s">
-        <x:v>92</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AX27" s="44" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="AY27" s="44" t="s">
-        <x:v>101</x:v>
+      <x:c r="AY27" s="50" t="s">
+        <x:v>411</x:v>
       </x:c>
       <x:c r="AZ27" s="44" t="s">
         <x:v>306</x:v>
@@ -6791,22 +7116,22 @@
       <x:c r="BB27" s="44" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="BC27" s="44" t="s">
-        <x:v>369</x:v>
+      <x:c r="BC27" s="50" t="s">
+        <x:v>412</x:v>
       </x:c>
       <x:c r="BD27" s="44" t="s"/>
       <x:c r="BE27" s="44" t="s"/>
-      <x:c r="BF27" s="44" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="BG27" s="44" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="BH27" s="44" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="BI27" s="44" t="s">
-        <x:v>180</x:v>
+      <x:c r="BF27" s="50" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="BG27" s="50" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="BH27" s="50" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="BI27" s="50" t="s">
+        <x:v>416</x:v>
       </x:c>
       <x:c r="BJ27" s="44" t="s"/>
     </x:row>
@@ -6815,39 +7140,65 @@
       <x:c r="B28" s="36" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="C28" s="44" t="s"/>
-      <x:c r="D28" s="44" t="s"/>
+      <x:c r="C28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="E28" s="44" t="s"/>
-      <x:c r="F28" s="44" t="s"/>
+      <x:c r="F28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="G28" s="44" t="s"/>
       <x:c r="H28" s="44" t="s"/>
       <x:c r="I28" s="44" t="s"/>
       <x:c r="J28" s="44" t="s"/>
       <x:c r="K28" s="44" t="s"/>
       <x:c r="L28" s="44" t="s"/>
-      <x:c r="M28" s="44" t="s"/>
+      <x:c r="M28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="N28" s="44" t="s"/>
       <x:c r="O28" s="44" t="s"/>
       <x:c r="P28" s="44" t="s"/>
       <x:c r="Q28" s="44" t="s"/>
-      <x:c r="R28" s="44" t="s"/>
+      <x:c r="R28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="S28" s="44" t="s"/>
       <x:c r="T28" s="44" t="s"/>
-      <x:c r="U28" s="44" t="s"/>
+      <x:c r="U28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="V28" s="44" t="s"/>
       <x:c r="W28" s="44" t="s"/>
       <x:c r="X28" s="44" t="s"/>
       <x:c r="Y28" s="44" t="s"/>
       <x:c r="Z28" s="44" t="s"/>
-      <x:c r="AA28" s="44" t="s"/>
+      <x:c r="AA28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AB28" s="44" t="s"/>
-      <x:c r="AC28" s="44" t="s"/>
+      <x:c r="AC28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AD28" s="44" t="s"/>
-      <x:c r="AE28" s="44" t="s"/>
-      <x:c r="AF28" s="44" t="s"/>
-      <x:c r="AG28" s="44" t="s"/>
-      <x:c r="AH28" s="44" t="s"/>
-      <x:c r="AI28" s="44" t="s"/>
+      <x:c r="AE28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AF28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AG28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AH28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AI28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AJ28" s="44" t="s">
         <x:v>107</x:v>
       </x:c>
@@ -6858,7 +7209,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="AM28" s="44" t="s">
-        <x:v>367</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="AN28" s="44" t="s">
         <x:v>156</x:v>
@@ -6869,20 +7220,24 @@
       <x:c r="AP28" s="44" t="s"/>
       <x:c r="AQ28" s="44" t="s"/>
       <x:c r="AR28" s="44" t="s"/>
-      <x:c r="AS28" s="44" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="AT28" s="44" t="s"/>
+      <x:c r="AS28" s="50" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="AT28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AU28" s="44" t="s">
-        <x:v>90</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="AV28" s="44" t="s"/>
-      <x:c r="AW28" s="44" t="s"/>
+      <x:c r="AW28" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AX28" s="45" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="AY28" s="44" t="s">
-        <x:v>293</x:v>
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="AY28" s="50" t="s">
+        <x:v>419</x:v>
       </x:c>
       <x:c r="AZ28" s="44" t="s">
         <x:v>215</x:v>
@@ -6893,22 +7248,22 @@
       <x:c r="BB28" s="44" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="BC28" s="44" t="s">
-        <x:v>372</x:v>
+      <x:c r="BC28" s="50" t="s">
+        <x:v>420</x:v>
       </x:c>
       <x:c r="BD28" s="44" t="s"/>
       <x:c r="BE28" s="44" t="s"/>
-      <x:c r="BF28" s="44" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="BG28" s="44" t="s">
-        <x:v>333</x:v>
-      </x:c>
-      <x:c r="BH28" s="44" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="BI28" s="44" t="s">
-        <x:v>148</x:v>
+      <x:c r="BF28" s="50" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="BG28" s="50" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="BH28" s="50" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="BI28" s="50" t="s">
+        <x:v>424</x:v>
       </x:c>
       <x:c r="BJ28" s="44" t="s">
         <x:v>180</x:v>
@@ -6919,39 +7274,65 @@
       <x:c r="B29" s="36" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="C29" s="44" t="s"/>
-      <x:c r="D29" s="44" t="s"/>
+      <x:c r="C29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="D29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="E29" s="44" t="s"/>
-      <x:c r="F29" s="44" t="s"/>
+      <x:c r="F29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="G29" s="44" t="s"/>
       <x:c r="H29" s="44" t="s"/>
       <x:c r="I29" s="44" t="s"/>
       <x:c r="J29" s="44" t="s"/>
       <x:c r="K29" s="44" t="s"/>
       <x:c r="L29" s="44" t="s"/>
-      <x:c r="M29" s="44" t="s"/>
+      <x:c r="M29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="N29" s="44" t="s"/>
       <x:c r="O29" s="44" t="s"/>
       <x:c r="P29" s="44" t="s"/>
       <x:c r="Q29" s="44" t="s"/>
-      <x:c r="R29" s="44" t="s"/>
+      <x:c r="R29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="S29" s="44" t="s"/>
       <x:c r="T29" s="44" t="s"/>
-      <x:c r="U29" s="44" t="s"/>
+      <x:c r="U29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="V29" s="44" t="s"/>
       <x:c r="W29" s="44" t="s"/>
       <x:c r="X29" s="44" t="s"/>
       <x:c r="Y29" s="44" t="s"/>
       <x:c r="Z29" s="44" t="s"/>
-      <x:c r="AA29" s="44" t="s"/>
+      <x:c r="AA29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AB29" s="44" t="s"/>
-      <x:c r="AC29" s="44" t="s"/>
+      <x:c r="AC29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AD29" s="44" t="s"/>
-      <x:c r="AE29" s="44" t="s"/>
-      <x:c r="AF29" s="44" t="s"/>
-      <x:c r="AG29" s="44" t="s"/>
-      <x:c r="AH29" s="44" t="s"/>
-      <x:c r="AI29" s="44" t="s"/>
+      <x:c r="AE29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AF29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AG29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AH29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AI29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AJ29" s="44" t="s">
         <x:v>96</x:v>
       </x:c>
@@ -6965,16 +7346,22 @@
       <x:c r="AP29" s="44" t="s"/>
       <x:c r="AQ29" s="44" t="s"/>
       <x:c r="AR29" s="44" t="s"/>
-      <x:c r="AS29" s="44" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="AT29" s="44" t="s"/>
-      <x:c r="AU29" s="44" t="s"/>
+      <x:c r="AS29" s="50" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="AT29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="AU29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AV29" s="44" t="s"/>
-      <x:c r="AW29" s="44" t="s"/>
+      <x:c r="AW29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="AX29" s="44" t="s"/>
-      <x:c r="AY29" s="44" t="s">
-        <x:v>373</x:v>
+      <x:c r="AY29" s="50" t="s">
+        <x:v>426</x:v>
       </x:c>
       <x:c r="AZ29" s="44" t="s">
         <x:v>215</x:v>
@@ -6983,20 +7370,24 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="BB29" s="44" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="BC29" s="44" t="s"/>
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="BC29" s="44" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="BD29" s="44" t="s"/>
       <x:c r="BE29" s="44" t="s"/>
-      <x:c r="BF29" s="44" t="s"/>
-      <x:c r="BG29" s="44" t="s">
-        <x:v>126</x:v>
+      <x:c r="BF29" s="50" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="BG29" s="50" t="s">
+        <x:v>429</x:v>
       </x:c>
       <x:c r="BH29" s="44" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="BI29" s="44" t="s">
-        <x:v>125</x:v>
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="BI29" s="50" t="s">
+        <x:v>430</x:v>
       </x:c>
       <x:c r="BJ29" s="44" t="s">
         <x:v>167</x:v>
@@ -7004,7 +7395,7 @@
     </x:row>
     <x:row r="30" spans="1:62" ht="53.45" customHeight="1">
       <x:c r="A30" s="37" t="s">
-        <x:v>374</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B30" s="38" t="s">
         <x:v>67</x:v>
@@ -7023,13 +7414,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="H30" s="39" t="s">
-        <x:v>375</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="I30" s="39" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="J30" s="39" t="s">
-        <x:v>376</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="K30" s="39" t="s"/>
       <x:c r="L30" s="39" t="s"/>
@@ -7040,14 +7431,14 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="O30" s="39" t="s">
-        <x:v>377</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="P30" s="39" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="Q30" s="39" t="s"/>
       <x:c r="R30" s="39" t="s">
-        <x:v>378</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="S30" s="39" t="s">
         <x:v>103</x:v>
@@ -7059,21 +7450,21 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="V30" s="39" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="W30" s="39" t="s">
-        <x:v>379</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="X30" s="39" t="s"/>
       <x:c r="Y30" s="39" t="s">
-        <x:v>380</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="Z30" s="39" t="s"/>
       <x:c r="AA30" s="39" t="s">
         <x:v>91</x:v>
       </x:c>
       <x:c r="AB30" s="39" t="s">
-        <x:v>348</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="AC30" s="39" t="s">
         <x:v>123</x:v>
@@ -7098,7 +7489,7 @@
       <x:c r="AM30" s="39" t="s"/>
       <x:c r="AN30" s="39" t="s"/>
       <x:c r="AO30" s="40" t="s">
-        <x:v>381</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="AP30" s="39" t="s"/>
       <x:c r="AQ30" s="40" t="s">
@@ -7111,7 +7502,7 @@
       <x:c r="AV30" s="39" t="s"/>
       <x:c r="AW30" s="39" t="s"/>
       <x:c r="AX30" s="39" t="s">
-        <x:v>382</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="AY30" s="39" t="s"/>
       <x:c r="AZ30" s="39" t="s"/>
@@ -7145,7 +7536,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="F31" s="39" t="s">
-        <x:v>383</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="G31" s="39" t="s">
         <x:v>70</x:v>
@@ -7154,7 +7545,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I31" s="39" t="s">
-        <x:v>376</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="J31" s="39" t="s">
         <x:v>107</x:v>
@@ -7175,16 +7566,16 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="P31" s="39" t="s">
-        <x:v>384</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="Q31" s="39" t="s">
-        <x:v>384</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="R31" s="39" t="s">
-        <x:v>353</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="S31" s="39" t="s">
-        <x:v>378</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="T31" s="39" t="s">
         <x:v>103</x:v>
@@ -7193,10 +7584,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="V31" s="39" t="s">
-        <x:v>385</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="W31" s="39" t="s">
-        <x:v>386</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="X31" s="39" t="s"/>
       <x:c r="Y31" s="39" t="s">
@@ -7212,22 +7603,22 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="AC31" s="39" t="s">
-        <x:v>348</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="AD31" s="39" t="s">
-        <x:v>387</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="AE31" s="39" t="s">
-        <x:v>388</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="AF31" s="39" t="s">
         <x:v>195</x:v>
       </x:c>
       <x:c r="AG31" s="39" t="s">
-        <x:v>389</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="AH31" s="39" t="s">
-        <x:v>390</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="AI31" s="39" t="s">
         <x:v>95</x:v>
@@ -7237,18 +7628,18 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="AL31" s="39" t="s">
-        <x:v>391</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="AM31" s="39" t="s"/>
       <x:c r="AN31" s="40" t="s">
-        <x:v>381</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="AO31" s="39" t="s">
         <x:v>157</x:v>
       </x:c>
       <x:c r="AP31" s="39" t="s"/>
       <x:c r="AQ31" s="39" t="s">
-        <x:v>392</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="AR31" s="39" t="s">
         <x:v>243</x:v>
@@ -7264,13 +7655,13 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="AY31" s="39" t="s">
-        <x:v>393</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="AZ31" s="40" t="s">
-        <x:v>364</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="BA31" s="39" t="s">
-        <x:v>394</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="BB31" s="39" t="s"/>
       <x:c r="BC31" s="39" t="s"/>
@@ -7290,7 +7681,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="C32" s="39" t="s">
-        <x:v>353</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D32" s="39" t="s">
         <x:v>298</x:v>
@@ -7302,7 +7693,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="G32" s="39" t="s">
-        <x:v>395</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="H32" s="39" t="s">
         <x:v>109</x:v>
@@ -7314,7 +7705,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="K32" s="39" t="s">
-        <x:v>396</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="L32" s="39" t="s">
         <x:v>203</x:v>
@@ -7326,7 +7717,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="O32" s="39" t="s">
-        <x:v>397</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="P32" s="39" t="s">
         <x:v>81</x:v>
@@ -7345,7 +7736,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="V32" s="39" t="s">
-        <x:v>354</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="W32" s="39" t="s">
         <x:v>85</x:v>
@@ -7364,7 +7755,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="AC32" s="39" t="s">
-        <x:v>348</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="AD32" s="39" t="s">
         <x:v>124</x:v>
@@ -7373,7 +7764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="AF32" s="39" t="s">
-        <x:v>389</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="AG32" s="39" t="s">
         <x:v>195</x:v>
@@ -7382,17 +7773,17 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="AI32" s="39" t="s">
-        <x:v>390</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="AJ32" s="39" t="s"/>
       <x:c r="AK32" s="39" t="s">
-        <x:v>398</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="AL32" s="39" t="s">
-        <x:v>399</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="AM32" s="39" t="s">
-        <x:v>400</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="AN32" s="39" t="s">
         <x:v>156</x:v>
@@ -7402,10 +7793,10 @@
       </x:c>
       <x:c r="AP32" s="39" t="s"/>
       <x:c r="AQ32" s="39" t="s">
-        <x:v>401</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="AR32" s="39" t="s">
-        <x:v>402</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="AS32" s="39" t="s">
         <x:v>99</x:v>
@@ -7415,19 +7806,19 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="AV32" s="39" t="s">
-        <x:v>403</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="AW32" s="39" t="s">
-        <x:v>403</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="AX32" s="39" t="s">
-        <x:v>404</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="AY32" s="39" t="s">
-        <x:v>405</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="AZ32" s="39" t="s">
-        <x:v>394</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="BA32" s="39" t="s">
         <x:v>306</x:v>
@@ -7437,17 +7828,17 @@
       <x:c r="BD32" s="39" t="s"/>
       <x:c r="BE32" s="39" t="s"/>
       <x:c r="BF32" s="39" t="s">
-        <x:v>406</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="BG32" s="39" t="s"/>
       <x:c r="BH32" s="39" t="s">
-        <x:v>407</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="BI32" s="39" t="s">
-        <x:v>407</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="BJ32" s="39" t="s">
-        <x:v>408</x:v>
+        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:62" ht="53.45" customHeight="1">
@@ -7466,7 +7857,7 @@
       </x:c>
       <x:c r="J33" s="39" t="s"/>
       <x:c r="K33" s="39" t="s">
-        <x:v>409</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="L33" s="39" t="s">
         <x:v>298</x:v>
@@ -7483,7 +7874,7 @@
       <x:c r="V33" s="39" t="s"/>
       <x:c r="W33" s="39" t="s"/>
       <x:c r="X33" s="39" t="s">
-        <x:v>410</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="Y33" s="39" t="s"/>
       <x:c r="Z33" s="39" t="s"/>
@@ -7491,28 +7882,28 @@
       <x:c r="AB33" s="39" t="s"/>
       <x:c r="AC33" s="39" t="s"/>
       <x:c r="AD33" s="39" t="s">
-        <x:v>411</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="AE33" s="39" t="s"/>
       <x:c r="AF33" s="40" t="s">
         <x:v>196</x:v>
       </x:c>
       <x:c r="AG33" s="39" t="s">
-        <x:v>389</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="AH33" s="39" t="s"/>
       <x:c r="AI33" s="39" t="s">
         <x:v>234</x:v>
       </x:c>
       <x:c r="AJ33" s="39" t="s">
-        <x:v>398</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="AK33" s="39" t="s"/>
       <x:c r="AL33" s="39" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="AM33" s="39" t="s">
-        <x:v>412</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="AN33" s="39" t="s">
         <x:v>156</x:v>
@@ -7525,7 +7916,7 @@
       </x:c>
       <x:c r="AQ33" s="39" t="s"/>
       <x:c r="AR33" s="39" t="s">
-        <x:v>401</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="AS33" s="39" t="s">
         <x:v>161</x:v>
@@ -7534,7 +7925,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="AU33" s="39" t="s">
-        <x:v>413</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="AV33" s="39" t="s">
         <x:v>305</x:v>
@@ -7543,10 +7934,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="AX33" s="39" t="s">
-        <x:v>414</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="AY33" s="39" t="s">
-        <x:v>404</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="AZ33" s="39" t="s">
         <x:v>215</x:v>
@@ -7565,7 +7956,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="BF33" s="39" t="s">
-        <x:v>415</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="BG33" s="39" t="s">
         <x:v>333</x:v>
@@ -7633,17 +8024,17 @@
       </x:c>
       <x:c r="AO34" s="39" t="s"/>
       <x:c r="AP34" s="39" t="s">
-        <x:v>416</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="AQ34" s="39" t="s"/>
       <x:c r="AR34" s="39" t="s">
-        <x:v>417</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="AS34" s="39" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="AT34" s="39" t="s">
-        <x:v>418</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="AU34" s="39" t="s">
         <x:v>320</x:v>
@@ -7652,7 +8043,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="AW34" s="39" t="s">
-        <x:v>419</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="AX34" s="39" t="s"/>
       <x:c r="AY34" s="39" t="s"/>
@@ -7664,7 +8055,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="BC34" s="39" t="s">
-        <x:v>420</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="BD34" s="39" t="s">
         <x:v>166</x:v>
@@ -7733,7 +8124,7 @@
       <x:c r="AN35" s="39" t="s"/>
       <x:c r="AO35" s="39" t="s"/>
       <x:c r="AP35" s="39" t="s">
-        <x:v>416</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="AQ35" s="39" t="s"/>
       <x:c r="AR35" s="39" t="s"/>
@@ -7754,7 +8145,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="BC35" s="39" t="s">
-        <x:v>420</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="BD35" s="39" t="s">
         <x:v>125</x:v>
@@ -7764,7 +8155,7 @@
       </x:c>
       <x:c r="BF35" s="39" t="s"/>
       <x:c r="BG35" s="39" t="s">
-        <x:v>406</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="BH35" s="39" t="s">
         <x:v>180</x:v>
@@ -7776,7 +8167,7 @@
     </x:row>
     <x:row r="36" spans="1:62" ht="53.45" customHeight="1">
       <x:c r="A36" s="43" t="s">
-        <x:v>421</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="B36" s="36" t="s">
         <x:v>67</x:v>
@@ -7792,7 +8183,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="G36" s="44" t="s">
-        <x:v>422</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="H36" s="44" t="s"/>
       <x:c r="I36" s="44" t="s">
@@ -7818,7 +8209,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="Q36" s="44" t="s">
-        <x:v>423</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="R36" s="44" t="s">
         <x:v>153</x:v>
@@ -7846,7 +8237,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="AC36" s="44" t="s">
-        <x:v>424</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="AD36" s="44" t="s"/>
       <x:c r="AE36" s="44" t="s">
@@ -7864,7 +8255,7 @@
       <x:c r="AK36" s="44" t="s"/>
       <x:c r="AL36" s="44" t="s"/>
       <x:c r="AM36" s="44" t="s">
-        <x:v>425</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="AN36" s="44" t="s"/>
       <x:c r="AO36" s="44" t="s"/>
@@ -7883,7 +8274,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="AX36" s="44" t="s">
-        <x:v>426</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="AY36" s="44" t="s"/>
       <x:c r="AZ36" s="44" t="s"/>
@@ -7914,7 +8305,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="E37" s="44" t="s">
-        <x:v>422</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="F37" s="44" t="s">
         <x:v>112</x:v>
@@ -7963,7 +8354,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="V37" s="44" t="s">
-        <x:v>354</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="W37" s="44" t="s">
         <x:v>313</x:v>
@@ -7978,7 +8369,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="AA37" s="44" t="s">
-        <x:v>424</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="AB37" s="44" t="s">
         <x:v>243</x:v>
@@ -7990,7 +8381,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="AE37" s="44" t="s">
-        <x:v>388</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="AF37" s="44" t="s">
         <x:v>117</x:v>
@@ -8006,11 +8397,11 @@
       </x:c>
       <x:c r="AJ37" s="44" t="s"/>
       <x:c r="AK37" s="44" t="s">
-        <x:v>427</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="AL37" s="44" t="s"/>
       <x:c r="AM37" s="44" t="s">
-        <x:v>412</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="AN37" s="44" t="s"/>
       <x:c r="AO37" s="44" t="s"/>
@@ -8023,30 +8414,30 @@
       <x:c r="AT37" s="44" t="s"/>
       <x:c r="AU37" s="44" t="s"/>
       <x:c r="AV37" s="44" t="s">
-        <x:v>428</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="AW37" s="44" t="s">
-        <x:v>428</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="AX37" s="44" t="s">
-        <x:v>426</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="AY37" s="44" t="s"/>
       <x:c r="AZ37" s="44" t="s"/>
       <x:c r="BA37" s="44" t="s"/>
       <x:c r="BB37" s="44" t="s"/>
       <x:c r="BC37" s="44" t="s">
-        <x:v>429</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="BD37" s="44" t="s"/>
       <x:c r="BE37" s="44" t="s"/>
       <x:c r="BF37" s="44" t="s"/>
       <x:c r="BG37" s="44" t="s"/>
       <x:c r="BH37" s="44" t="s">
-        <x:v>430</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="BI37" s="44" t="s">
-        <x:v>430</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="BJ37" s="44" t="s">
         <x:v>176</x:v>
@@ -8067,7 +8458,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F38" s="44" t="s">
-        <x:v>422</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="G38" s="44" t="s">
         <x:v>103</x:v>
@@ -8101,13 +8492,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="R38" s="44" t="s">
-        <x:v>353</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="S38" s="44" t="s">
         <x:v>153</x:v>
       </x:c>
       <x:c r="T38" s="44" t="s">
-        <x:v>431</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="U38" s="44" t="s">
         <x:v>292</x:v>
@@ -8131,13 +8522,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="AB38" s="44" t="s">
-        <x:v>424</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="AC38" s="44" t="s">
         <x:v>243</x:v>
       </x:c>
       <x:c r="AD38" s="44" t="s">
-        <x:v>388</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="AE38" s="44" t="s">
         <x:v>139</x:v>
@@ -8155,14 +8546,14 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="AJ38" s="44" t="s">
-        <x:v>427</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="AK38" s="44" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="AL38" s="44" t="s"/>
       <x:c r="AM38" s="44" t="s">
-        <x:v>412</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="AN38" s="44" t="s"/>
       <x:c r="AO38" s="44" t="s">
@@ -8179,22 +8570,22 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="AV38" s="44" t="s">
-        <x:v>428</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="AW38" s="44" t="s">
-        <x:v>428</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="AX38" s="44" t="s">
         <x:v>92</x:v>
       </x:c>
       <x:c r="AY38" s="44" t="s">
-        <x:v>426</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="AZ38" s="44" t="s"/>
       <x:c r="BA38" s="44" t="s"/>
       <x:c r="BB38" s="44" t="s"/>
       <x:c r="BC38" s="44" t="s">
-        <x:v>429</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="BD38" s="44" t="s"/>
       <x:c r="BE38" s="44" t="s"/>
@@ -8221,7 +8612,7 @@
       <x:c r="F39" s="44" t="s"/>
       <x:c r="G39" s="44" t="s"/>
       <x:c r="H39" s="44" t="s">
-        <x:v>422</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="I39" s="44" t="s"/>
       <x:c r="J39" s="44" t="s"/>
@@ -8238,7 +8629,7 @@
       <x:c r="S39" s="44" t="s"/>
       <x:c r="T39" s="44" t="s"/>
       <x:c r="U39" s="44" t="s">
-        <x:v>431</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="V39" s="44" t="s"/>
       <x:c r="W39" s="44" t="s"/>
@@ -8257,7 +8648,7 @@
       </x:c>
       <x:c r="AE39" s="44" t="s"/>
       <x:c r="AF39" s="44" t="s">
-        <x:v>389</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="AG39" s="44" t="s"/>
       <x:c r="AH39" s="44" t="s"/>
@@ -8268,7 +8659,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="AK39" s="44" t="s">
-        <x:v>432</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="AL39" s="44" t="s">
         <x:v>119</x:v>
@@ -8278,14 +8669,14 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="AO39" s="44" t="s">
-        <x:v>433</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="AP39" s="44" t="s"/>
       <x:c r="AQ39" s="44" t="s">
         <x:v>95</x:v>
       </x:c>
       <x:c r="AR39" s="44" t="s">
-        <x:v>434</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="AS39" s="44" t="s">
         <x:v>124</x:v>
@@ -8301,10 +8692,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="AX39" s="44" t="s">
-        <x:v>414</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="AY39" s="44" t="s">
-        <x:v>426</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="AZ39" s="44" t="s">
         <x:v>306</x:v>
@@ -8322,13 +8713,13 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="BE39" s="44" t="s">
-        <x:v>435</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="BF39" s="44" t="s">
         <x:v>333</x:v>
       </x:c>
       <x:c r="BG39" s="44" t="s">
-        <x:v>436</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="BH39" s="44" t="s"/>
       <x:c r="BI39" s="44" t="s"/>
@@ -8384,14 +8775,14 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="AO40" s="44" t="s">
-        <x:v>433</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="AP40" s="44" t="s"/>
       <x:c r="AQ40" s="44" t="s">
-        <x:v>437</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="AR40" s="44" t="s">
-        <x:v>434</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="AS40" s="44" t="s">
         <x:v>328</x:v>
@@ -8406,7 +8797,7 @@
       <x:c r="AW40" s="44" t="s"/>
       <x:c r="AX40" s="44" t="s"/>
       <x:c r="AY40" s="44" t="s">
-        <x:v>438</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="AZ40" s="44" t="s">
         <x:v>306</x:v>
@@ -8415,7 +8806,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="BB40" s="44" t="s">
-        <x:v>435</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="BC40" s="45" t="s">
         <x:v>178</x:v>
@@ -8481,7 +8872,7 @@
       </x:c>
       <x:c r="AM41" s="44" t="s"/>
       <x:c r="AN41" s="44" t="s">
-        <x:v>433</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="AO41" s="44" t="s"/>
       <x:c r="AP41" s="44" t="s"/>
@@ -8489,7 +8880,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="AR41" s="44" t="s">
-        <x:v>437</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="AS41" s="44" t="s">
         <x:v>176</x:v>
@@ -8509,7 +8900,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="BB41" s="44" t="s">
-        <x:v>435</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="BC41" s="44" t="s"/>
       <x:c r="BD41" s="44" t="s">
@@ -8642,7 +9033,7 @@
   <x:sheetData>
     <x:row r="5" spans="1:1" ht="23.25" customHeight="1">
       <x:c r="A5" s="49" t="s">
-        <x:v>439</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
